--- a/medicine/Enfance/Hubert_Ben_Kemoun/Hubert_Ben_Kemoun.xlsx
+++ b/medicine/Enfance/Hubert_Ben_Kemoun/Hubert_Ben_Kemoun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hubert Ben Kemoun, né à Sidi Bel Abbès en Algérie le 24 octobre 1958, est un auteur français de littérature d'enfance et de jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert Ben Kemoun, né à Sidi Bel Abbès en Algérie le 24 octobre 1958, est un auteur français de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,19 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Sidi Bel Abbès, il a commencé sa carrière d'écrivain par des dramatiques pour Radio France[2],[3]. et pour le théâtre (pour adultes)[3].
-Parallèlement, il travaille comme éducateur dans un institut spécialisé pour enfants psychotiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Sidi Bel Abbès, il a commencé sa carrière d'écrivain par des dramatiques pour Radio France,. et pour le théâtre (pour adultes).
+Parallèlement, il travaille comme éducateur dans un institut spécialisé pour enfants psychotiques.
 Après avoir publié un recueil de nouvelles et un roman, il entame une carrière prolifique d'auteur pour la jeunesse en 1992, publiant dans de nombreuses maisons d'édition (Syros, Nathan, Bayard, Flammarion, Casterman… ). Il écrit en particulier plusieurs romans policiers pour la jeunesse ( "Les hasards sont assassins")
 En mai 2019 il visite des classes  au Lycée Français de Barcelone.
-Scène
-montée au paradis (en co-écriture avec Jean-Luc Annaix) (Comédie musicale). Théâtre Nuit de Nantes. (1991). Mise en scène Jean-Luc Annaix. Jouée de 91 à 94. Prix du public au Festival de Toulouse Avril 92.
-Privé d'elle, comédie musicale. Mise en scène Hugues Charbonneau. Théâtre du Pré Perché (Rennes). (1994). Jouée de 1993 à 2000
-Le Supplice de Chantal, ou Les Fins de moi sont difficiles (comédie déambulatoire, loufoque, dînatoire et musicale).  Mise en scène Christophe Rouxel. Théâtre Icare, St.-Nazaire(1997). Reprise sous sa nouvelle version. Fégréac (44). La Carrière (2011 puis 2012).
-Radio
-De 1986 à 1998 scénariste et dialoguiste pour Radio France. (23 heures d'antenne). 
-Dramatiques et feuilletons diffusés sur le réseau local, national et international de Radio France.
 </t>
         </is>
       </c>
@@ -549,13 +556,94 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scène</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>montée au paradis (en co-écriture avec Jean-Luc Annaix) (Comédie musicale). Théâtre Nuit de Nantes. (1991). Mise en scène Jean-Luc Annaix. Jouée de 91 à 94. Prix du public au Festival de Toulouse Avril 92.
+Privé d'elle, comédie musicale. Mise en scène Hugues Charbonneau. Théâtre du Pré Perché (Rennes). (1994). Jouée de 1993 à 2000
+Le Supplice de Chantal, ou Les Fins de moi sont difficiles (comédie déambulatoire, loufoque, dînatoire et musicale).  Mise en scène Christophe Rouxel. Théâtre Icare, St.-Nazaire(1997). Reprise sous sa nouvelle version. Fégréac (44). La Carrière (2011 puis 2012).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hubert_Ben_Kemoun</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hubert_Ben_Kemoun</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1986 à 1998 scénariste et dialoguiste pour Radio France. (23 heures d'antenne). 
+Dramatiques et feuilletons diffusés sur le réseau local, national et international de Radio France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hubert_Ben_Kemoun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hubert_Ben_Kemoun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Le Jour de tous les mensonges  (Nathan. 1996)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Jour de tous les mensonges  (Nathan. 1996)
 Tous les Jours, c'est foot ! - Illustrations Régis Faller  (Nathan, coll. Première lune,série Nico, 1996)
 Le Coupable habite en face - (Casterman, coll. Romans, 1996)
 L'Heureux gagnant (Père Castor-Flammarion, 1996)
@@ -656,9 +744,43 @@
 A samedi ! - Illustrations de Zaü (Rue du monde, 2015) : roman BD
 L'interrogatoire... ou ce qui s'est vraiment passé - Illustrations Clotka (Nathan, coll. Nathan poche, 2015)
 La Fille quelques heures avant l'impact (Flammarion Jeunesse. 2016)
-Joyeuses Pâques et bon Noël ! (Thierry Magnier, 2017)
-Albums
-Le Noël de Maître Belloni -  Illustrations Isabelle Chatellard (Père Castor-Flammarion, 1996)
+Joyeuses Pâques et bon Noël ! (Thierry Magnier, 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hubert_Ben_Kemoun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hubert_Ben_Kemoun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Noël de Maître Belloni -  Illustrations Isabelle Chatellard (Père Castor-Flammarion, 1996)
 Imagine... - Illustrations Jean-François Dumont (Père Castor-Flammarion, 1997)
 Pénélope la Poule de Pâques - illustrations Stéphane Girel (Père Castor-Flammarion, 1998)
 La Nuit du Mélimos - Illustrations Isabelle Chatellard (Père Castor-Flammarion. 1999) Prix Millepages, 1999
@@ -688,33 +810,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hubert_Ben_Kemoun</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hubert_Ben_Kemoun</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hubert Ben Kemoun a reçu de nombreuses récompenses pour ses œuvres[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hubert Ben Kemoun a reçu de nombreuses récompenses pour ses œuvres :
 Grand Prix du Festival de Douarnenez pour Sur l'autre rive en 1991.
 Prix du public au Festival de Toulouse pour Descente au paradis en 1992.
 Prix tatoulu pour Le jour des saigneurs en 2000 et pour Blues en noir 2003.
